--- a/nriss-patch-1/ig/PN13-FHIR-prescmed-patient-id-seul-conceptmap.xlsx
+++ b/nriss-patch-1/ig/PN13-FHIR-prescmed-patient-id-seul-conceptmap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ConceptMap/PN13-FHIR-prescmed-patient-id-seul-conceptmap</t>
+    <t>https://hl7.fr/ig/fhir/medication/ConceptMap/PN13-FHIR-prescmed-patient-id-seul-conceptmap</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T15:35:36+00:00</t>
+    <t>2026-01-15T08:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,37 +75,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConceptMap pour la conversion PN13 vers FHIR du patient d'une prescritpion de médicament avec uniquement un identifiant fourni</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://interopsante.org/pn13/xsd</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ConceptMap pour la conversion PN13 vers FHIR du patient d'une prescritpion de médicament avec uniquement un identifiant fourni</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://interopsante.org/pn13/xsd</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Patient/IPP</t>
@@ -413,26 +416,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
